--- a/Personal/yubo/计划表.xlsx
+++ b/Personal/yubo/计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,15 +48,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>做完公司的白盒测试，好好编写测试用例，尽快学会这种测试方法。写完kdb_driver.c里面的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接着星期一的，写完kdb_statment.c和pdo_kdb.c里面的测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好好学习数据库接口技术，为明天的培训做好准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.认真学习公司其他培               2.培训公司其他人，尽量讲懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2016-3-21      ~~     2016-3-27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>做完公司的白盒测试，好好编写测试用例，尽快学会这种测试方法。写完kdb_driver.c里面的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接着星期一的，写完kdb_statment.c和pdo_kdb.c里面的测试用例</t>
+    <t>2016-5-5      ~~     2016-5-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,6 +146,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -228,6 +243,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -263,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,10 +510,10 @@
     </row>
     <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -472,18 +521,24 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
